--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2384451.376613848</v>
+        <v>2384053.449191916</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247224.3570955319</v>
+        <v>261098.0247275266</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8708285.199382545</v>
+        <v>8709154.427820362</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>183.9168626330978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.0972426225369</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -753,10 +753,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>15.24771368452858</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.11448760885632</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.11534876808464</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.383912851960241</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>83.91475386577812</v>
       </c>
       <c r="S5" t="n">
-        <v>120.7067239855552</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>53.36373450397114</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -990,10 +990,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>89.46422333432358</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.78874461372734</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>84.31882417064593</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -1142,7 +1142,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>155.2846928792263</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>88.4929249825265</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>120.9058297523383</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>158.8972820020618</v>
       </c>
       <c r="C10" t="n">
-        <v>117.2307034004646</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.6434842236779</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C11" t="n">
-        <v>267.6548011813596</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>251.9564113610669</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>299.5500588837702</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G11" t="n">
-        <v>301.4833267811928</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H11" t="n">
-        <v>219.0334417595027</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.89706571678849</v>
+        <v>71.92652010774087</v>
       </c>
       <c r="T11" t="n">
-        <v>111.6557369071379</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>141.8768630239848</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>223.149861463857</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>248.4499609418139</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y11" t="n">
-        <v>231.5265516462837</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>42.91219857877547</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1461,7 +1461,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>61.34484987780169</v>
       </c>
       <c r="H12" t="n">
         <v>98.93847887876893</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4400113421910135</v>
+        <v>68.28964948932732</v>
       </c>
       <c r="C13" t="n">
-        <v>57.46018994377542</v>
+        <v>54.4896443347278</v>
       </c>
       <c r="D13" t="n">
-        <v>41.08155434135381</v>
+        <v>38.11100873230619</v>
       </c>
       <c r="E13" t="n">
-        <v>40.02930419713326</v>
+        <v>37.05875858808564</v>
       </c>
       <c r="F13" t="n">
-        <v>40.49622852531957</v>
+        <v>37.52568291627195</v>
       </c>
       <c r="G13" t="n">
-        <v>56.7709312466674</v>
+        <v>53.80038563761978</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31929886935782</v>
+        <v>44.3487532603102</v>
       </c>
       <c r="I13" t="n">
-        <v>32.30139405418717</v>
+        <v>29.33084844513955</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.56694367260448</v>
+        <v>34.59639806355686</v>
       </c>
       <c r="S13" t="n">
-        <v>101.1130450711882</v>
+        <v>98.14249946214061</v>
       </c>
       <c r="T13" t="n">
-        <v>120.3875437533169</v>
+        <v>117.4169981442692</v>
       </c>
       <c r="U13" t="n">
-        <v>173.85871721663</v>
+        <v>170.8881716075824</v>
       </c>
       <c r="V13" t="n">
-        <v>147.6683314980005</v>
+        <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>172.8352175686138</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X13" t="n">
-        <v>118.4803195644169</v>
+        <v>115.5097739553685</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.3551873204846</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.6434842236778</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>267.6548011813596</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>258.6361052258875</v>
+        <v>193.1839666725432</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>27.02679594003916</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H14" t="n">
-        <v>219.0334417595027</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>74.89706571678846</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>111.6557369071378</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>141.8768630239848</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>223.149861463857</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>248.4499609418139</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>267.7502191745605</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y14" t="n">
-        <v>279.1468169707592</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.28719629253376</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1740,7 +1740,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>102.8796789694642</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>178.743487279975</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.26019509837491</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C16" t="n">
-        <v>57.46018994377539</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D16" t="n">
-        <v>41.08155434135378</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E16" t="n">
-        <v>40.02930419713323</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F16" t="n">
-        <v>40.49622852531954</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G16" t="n">
-        <v>56.77093124666737</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31929886935779</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I16" t="n">
-        <v>32.30139405418714</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>37.56694367260445</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S16" t="n">
-        <v>101.1130450711882</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T16" t="n">
-        <v>120.3875437533168</v>
+        <v>117.4169981442692</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0385334604477</v>
+        <v>170.8881716075824</v>
       </c>
       <c r="V16" t="n">
-        <v>147.6683314980005</v>
+        <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>172.8352175686138</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X16" t="n">
-        <v>118.4803195644169</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.3551873204846</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.6159961864838</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C17" t="n">
-        <v>206.6273131441655</v>
+        <v>204.4312603402915</v>
       </c>
       <c r="D17" t="n">
-        <v>197.6086171886935</v>
+        <v>195.4125643848195</v>
       </c>
       <c r="E17" t="n">
-        <v>219.350754758599</v>
+        <v>217.154701954725</v>
       </c>
       <c r="F17" t="n">
-        <v>238.5225708465762</v>
+        <v>236.3265180427022</v>
       </c>
       <c r="G17" t="n">
-        <v>240.4558387439987</v>
+        <v>238.2597859401247</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0059537223086</v>
+        <v>155.8099009184346</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.86957767959441</v>
+        <v>11.67352487572037</v>
       </c>
       <c r="T17" t="n">
-        <v>50.62824886994377</v>
+        <v>48.43219606606974</v>
       </c>
       <c r="U17" t="n">
-        <v>80.84937498679074</v>
+        <v>78.6533221829167</v>
       </c>
       <c r="V17" t="n">
-        <v>162.1223734266629</v>
+        <v>159.9263206227889</v>
       </c>
       <c r="W17" t="n">
-        <v>187.4224729046198</v>
+        <v>185.2264201007458</v>
       </c>
       <c r="X17" t="n">
-        <v>206.7227311373664</v>
+        <v>204.5266783334924</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.1193289335652</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>12.16745932453911</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>4.400426817854378</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.23270706118086</v>
+        <v>25.60507668829893</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.08555703399415</v>
+        <v>37.88950423012011</v>
       </c>
       <c r="T19" t="n">
-        <v>59.36005571612279</v>
+        <v>57.16400291224875</v>
       </c>
       <c r="U19" t="n">
-        <v>112.831229179436</v>
+        <v>110.6351763755619</v>
       </c>
       <c r="V19" t="n">
-        <v>86.64084346080645</v>
+        <v>84.44479065693241</v>
       </c>
       <c r="W19" t="n">
-        <v>111.8077295314197</v>
+        <v>109.6116767275457</v>
       </c>
       <c r="X19" t="n">
-        <v>57.45283152722283</v>
+        <v>55.25677872334879</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.32769928329051</v>
+        <v>46.13164647941647</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218.6159961864838</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C20" t="n">
-        <v>206.6273131441655</v>
+        <v>204.4312603402915</v>
       </c>
       <c r="D20" t="n">
-        <v>197.6086171886935</v>
+        <v>195.4125643848195</v>
       </c>
       <c r="E20" t="n">
-        <v>219.350754758599</v>
+        <v>217.154701954725</v>
       </c>
       <c r="F20" t="n">
-        <v>238.5225708465762</v>
+        <v>236.3265180427022</v>
       </c>
       <c r="G20" t="n">
-        <v>240.4558387439987</v>
+        <v>238.2597859401247</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0059537223086</v>
+        <v>155.8099009184346</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.86957767959441</v>
+        <v>11.67352487572037</v>
       </c>
       <c r="T20" t="n">
-        <v>50.62824886994377</v>
+        <v>48.43219606606974</v>
       </c>
       <c r="U20" t="n">
-        <v>80.84937498679074</v>
+        <v>78.6533221829167</v>
       </c>
       <c r="V20" t="n">
-        <v>162.1223734266629</v>
+        <v>159.9263206227889</v>
       </c>
       <c r="W20" t="n">
-        <v>187.4224729046198</v>
+        <v>185.2264201007458</v>
       </c>
       <c r="X20" t="n">
-        <v>206.7227311373664</v>
+        <v>204.5266783334924</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.1193289335652</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>69.85688611863738</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2217,7 +2217,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>190.760040481239</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.23270706118086</v>
+        <v>8.036654257306822</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>17.56842243099221</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.08555703399415</v>
+        <v>37.88950423012011</v>
       </c>
       <c r="T22" t="n">
-        <v>59.36005571612279</v>
+        <v>57.16400291224875</v>
       </c>
       <c r="U22" t="n">
-        <v>112.831229179436</v>
+        <v>110.6351763755619</v>
       </c>
       <c r="V22" t="n">
-        <v>86.64084346080645</v>
+        <v>84.44479065693241</v>
       </c>
       <c r="W22" t="n">
-        <v>111.8077295314197</v>
+        <v>109.6116767275457</v>
       </c>
       <c r="X22" t="n">
-        <v>57.45283152722283</v>
+        <v>55.25677872334879</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.32769928329051</v>
+        <v>46.13164647941647</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>218.6159961864838</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C23" t="n">
-        <v>206.6273131441655</v>
+        <v>204.4312603402915</v>
       </c>
       <c r="D23" t="n">
-        <v>197.6086171886935</v>
+        <v>195.4125643848195</v>
       </c>
       <c r="E23" t="n">
-        <v>219.350754758599</v>
+        <v>217.154701954725</v>
       </c>
       <c r="F23" t="n">
-        <v>238.5225708465762</v>
+        <v>236.3265180427022</v>
       </c>
       <c r="G23" t="n">
-        <v>240.4558387439987</v>
+        <v>238.2597859401247</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0059537223086</v>
+        <v>155.8099009184346</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.86957767959441</v>
+        <v>11.67352487572037</v>
       </c>
       <c r="T23" t="n">
-        <v>50.62824886994377</v>
+        <v>48.43219606606974</v>
       </c>
       <c r="U23" t="n">
-        <v>80.84937498679074</v>
+        <v>78.6533221829167</v>
       </c>
       <c r="V23" t="n">
-        <v>162.1223734266629</v>
+        <v>159.9263206227889</v>
       </c>
       <c r="W23" t="n">
-        <v>187.4224729046198</v>
+        <v>185.2264201007458</v>
       </c>
       <c r="X23" t="n">
-        <v>206.7227311373664</v>
+        <v>204.5266783334924</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.1193289335652</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>124.4319025133125</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2460,7 +2460,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>129.8414531418368</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.23270706118086</v>
+        <v>8.036654257306822</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>17.56842243099221</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.08555703399415</v>
+        <v>37.88950423012011</v>
       </c>
       <c r="T25" t="n">
-        <v>59.36005571612279</v>
+        <v>57.16400291224875</v>
       </c>
       <c r="U25" t="n">
-        <v>112.831229179436</v>
+        <v>110.6351763755619</v>
       </c>
       <c r="V25" t="n">
-        <v>86.64084346080645</v>
+        <v>84.44479065693241</v>
       </c>
       <c r="W25" t="n">
-        <v>111.8077295314197</v>
+        <v>109.6116767275457</v>
       </c>
       <c r="X25" t="n">
-        <v>57.45283152722283</v>
+        <v>55.25677872334879</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.32769928329051</v>
+        <v>46.13164647941647</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2564,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721452</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508323</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655129</v>
+        <v>36.56510393172127</v>
       </c>
       <c r="Y26" t="n">
-        <v>164.4009642722387</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581942</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>286.9680071978373</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
@@ -2855,7 +2855,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>220.0019033841785</v>
       </c>
       <c r="Y29" t="n">
         <v>276.1762713617116</v>
@@ -2919,7 +2919,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -2928,7 +2928,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.9956715843949</v>
+        <v>245.9460223007792</v>
       </c>
       <c r="C32" t="n">
-        <v>236.0069885420766</v>
+        <v>233.9573392584609</v>
       </c>
       <c r="D32" t="n">
-        <v>226.9882925866046</v>
+        <v>224.9386433029889</v>
       </c>
       <c r="E32" t="n">
-        <v>248.7304301565102</v>
+        <v>246.6807808728944</v>
       </c>
       <c r="F32" t="n">
-        <v>267.9022462444873</v>
+        <v>265.8525969608716</v>
       </c>
       <c r="G32" t="n">
-        <v>269.8355141419098</v>
+        <v>267.7858648582941</v>
       </c>
       <c r="H32" t="n">
-        <v>187.3856291202198</v>
+        <v>185.3359798366041</v>
       </c>
       <c r="I32" t="n">
-        <v>28.9815942648479</v>
+        <v>26.93194498123219</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.24925307750553</v>
+        <v>41.19960379388982</v>
       </c>
       <c r="T32" t="n">
-        <v>80.00792426785489</v>
+        <v>77.95827498423918</v>
       </c>
       <c r="U32" t="n">
-        <v>110.2290503847018</v>
+        <v>108.1794011010861</v>
       </c>
       <c r="V32" t="n">
-        <v>191.502048824574</v>
+        <v>189.4523995409583</v>
       </c>
       <c r="W32" t="n">
-        <v>216.8021483025309</v>
+        <v>214.7524990189152</v>
       </c>
       <c r="X32" t="n">
-        <v>236.1024065352775</v>
+        <v>234.0527572516618</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.4990043314763</v>
+        <v>245.4493550478606</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3165,7 +3165,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>226.1116663261494</v>
+        <v>211.5461750406456</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.61238245909198</v>
+        <v>37.56273317547627</v>
       </c>
       <c r="C34" t="n">
-        <v>25.81237730449246</v>
+        <v>23.76272802087675</v>
       </c>
       <c r="D34" t="n">
-        <v>9.433741702070847</v>
+        <v>7.38409241845514</v>
       </c>
       <c r="E34" t="n">
-        <v>8.381491557850296</v>
+        <v>6.331842274234589</v>
       </c>
       <c r="F34" t="n">
-        <v>8.848415886036605</v>
+        <v>6.798766602420898</v>
       </c>
       <c r="G34" t="n">
-        <v>25.12311860738444</v>
+        <v>23.07346932376873</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67148623007486</v>
+        <v>13.62183694645915</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6535814149042096</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.91913103332152</v>
+        <v>3.869481749705812</v>
       </c>
       <c r="S34" t="n">
-        <v>69.46523243190526</v>
+        <v>67.41558314828956</v>
       </c>
       <c r="T34" t="n">
-        <v>88.7397311140339</v>
+        <v>86.69008183041819</v>
       </c>
       <c r="U34" t="n">
-        <v>142.2109045773471</v>
+        <v>140.1612552937314</v>
       </c>
       <c r="V34" t="n">
-        <v>116.0205188587176</v>
+        <v>113.9708695751019</v>
       </c>
       <c r="W34" t="n">
-        <v>141.1874049293308</v>
+        <v>139.1377556457151</v>
       </c>
       <c r="X34" t="n">
-        <v>86.83250692513394</v>
+        <v>84.78285764151823</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.70737468120163</v>
+        <v>75.65772539758592</v>
       </c>
     </row>
     <row r="35">
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3591,7 +3591,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -3633,7 +3633,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3740,25 +3740,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G41" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H41" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T41" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W41" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y41" t="n">
         <v>223.4773717274634</v>
@@ -3819,7 +3819,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>145.5211447459511</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -3876,7 +3876,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.44359982789237</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U43" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.99888625470467</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W43" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
         <v>211.9853559380638</v>
@@ -3995,7 +3995,7 @@
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205612</v>
@@ -4043,7 +4043,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101707</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
         <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>607.8153735961574</v>
+        <v>62.26535669987868</v>
       </c>
       <c r="C2" t="n">
-        <v>607.8153735961574</v>
+        <v>62.26535669987868</v>
       </c>
       <c r="D2" t="n">
-        <v>234.991408823381</v>
+        <v>62.26535669987868</v>
       </c>
       <c r="E2" t="n">
-        <v>234.991408823381</v>
+        <v>62.26535669987868</v>
       </c>
       <c r="F2" t="n">
-        <v>224.8806221739553</v>
+        <v>52.15457005045307</v>
       </c>
       <c r="G2" t="n">
-        <v>212.8170396685474</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="H2" t="n">
-        <v>212.8170396685474</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I2" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J2" t="n">
-        <v>111.9983851501491</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K2" t="n">
-        <v>352.1387571949318</v>
+        <v>352.2299038626335</v>
       </c>
       <c r="L2" t="n">
-        <v>700.0241302798781</v>
+        <v>700.1152769475798</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.263296532966</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N2" t="n">
-        <v>1372.398309251746</v>
+        <v>1471.685801888383</v>
       </c>
       <c r="O2" t="n">
-        <v>1677.40289372458</v>
+        <v>1776.690386361217</v>
       </c>
       <c r="P2" t="n">
-        <v>1905.559790180633</v>
+        <v>1910.117123565718</v>
       </c>
       <c r="Q2" t="n">
-        <v>1999.99204386717</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R2" t="n">
-        <v>1909.353757363023</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="S2" t="n">
-        <v>1909.353757363023</v>
+        <v>1818.774768531954</v>
       </c>
       <c r="T2" t="n">
-        <v>1909.353757363023</v>
+        <v>1594.415822262965</v>
       </c>
       <c r="U2" t="n">
-        <v>1909.353757363023</v>
+        <v>1594.415822262965</v>
       </c>
       <c r="V2" t="n">
-        <v>1572.374483258964</v>
+        <v>1594.415822262965</v>
       </c>
       <c r="W2" t="n">
-        <v>1383.387369498826</v>
+        <v>1231.880892120566</v>
       </c>
       <c r="X2" t="n">
-        <v>1001.357229020319</v>
+        <v>849.8507516420598</v>
       </c>
       <c r="Y2" t="n">
-        <v>607.8153735961574</v>
+        <v>456.3088962178978</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.3126013793875</v>
+        <v>766.4853362783215</v>
       </c>
       <c r="C3" t="n">
-        <v>757.6089286203422</v>
+        <v>604.7816635192762</v>
       </c>
       <c r="D3" t="n">
-        <v>618.7702916105543</v>
+        <v>465.9430265094883</v>
       </c>
       <c r="E3" t="n">
-        <v>471.7422816674255</v>
+        <v>318.9150165663595</v>
       </c>
       <c r="F3" t="n">
-        <v>337.0484836172998</v>
+        <v>184.2212185162338</v>
       </c>
       <c r="G3" t="n">
-        <v>208.3199836405844</v>
+        <v>55.49271853951842</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3821261872824</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I3" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J3" t="n">
-        <v>100.2539874104495</v>
+        <v>100.3451340781512</v>
       </c>
       <c r="K3" t="n">
-        <v>329.7445399706382</v>
+        <v>329.8356866383399</v>
       </c>
       <c r="L3" t="n">
-        <v>695.5663851407538</v>
+        <v>473.4184723023503</v>
       </c>
       <c r="M3" t="n">
-        <v>695.5663851407538</v>
+        <v>958.4518258125768</v>
       </c>
       <c r="N3" t="n">
-        <v>1147.924544021727</v>
+        <v>1454.57779668251</v>
       </c>
       <c r="O3" t="n">
-        <v>1540.124494805878</v>
+        <v>1846.777747466661</v>
       </c>
       <c r="P3" t="n">
-        <v>1842.220414081575</v>
+        <v>1846.777747466661</v>
       </c>
       <c r="Q3" t="n">
-        <v>1999.99204386717</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R3" t="n">
-        <v>1940.207774962116</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="S3" t="n">
-        <v>1928.981019801655</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="T3" t="n">
-        <v>1928.981019801655</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="U3" t="n">
-        <v>1710.486227399965</v>
+        <v>1786.054584850565</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.486227399965</v>
+        <v>1557.658962298899</v>
       </c>
       <c r="W3" t="n">
-        <v>1469.170358633275</v>
+        <v>1316.343093532209</v>
       </c>
       <c r="X3" t="n">
-        <v>1271.25337051107</v>
+        <v>1118.426105410004</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.732044160648</v>
+        <v>925.9047790595824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.999963391343</v>
+        <v>1782.514218444532</v>
       </c>
       <c r="C4" t="n">
-        <v>383.999963391343</v>
+        <v>1782.514218444532</v>
       </c>
       <c r="D4" t="n">
-        <v>344.4895100902474</v>
+        <v>1782.514218444532</v>
       </c>
       <c r="E4" t="n">
-        <v>192.4804958515663</v>
+        <v>1782.514218444532</v>
       </c>
       <c r="F4" t="n">
-        <v>39.9998408773434</v>
+        <v>1782.514218444532</v>
       </c>
       <c r="G4" t="n">
-        <v>39.9998408773434</v>
+        <v>1776.06582162437</v>
       </c>
       <c r="H4" t="n">
-        <v>39.9998408773434</v>
+        <v>1616.693176403644</v>
       </c>
       <c r="I4" t="n">
-        <v>39.9998408773434</v>
+        <v>1472.490132006323</v>
       </c>
       <c r="J4" t="n">
-        <v>39.9998408773434</v>
+        <v>1472.490132006323</v>
       </c>
       <c r="K4" t="n">
-        <v>73.6040286219868</v>
+        <v>1506.094319750966</v>
       </c>
       <c r="L4" t="n">
-        <v>174.2111080222463</v>
+        <v>1606.701399151226</v>
       </c>
       <c r="M4" t="n">
-        <v>292.2046141498481</v>
+        <v>1724.694905278827</v>
       </c>
       <c r="N4" t="n">
-        <v>410.6269558994484</v>
+        <v>1843.117247028428</v>
       </c>
       <c r="O4" t="n">
-        <v>509.0906023951381</v>
+        <v>1941.580893524117</v>
       </c>
       <c r="P4" t="n">
-        <v>572.0590861232758</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.5217447769649</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R4" t="n">
-        <v>383.999963391343</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="S4" t="n">
-        <v>383.999963391343</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="T4" t="n">
-        <v>383.999963391343</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="U4" t="n">
-        <v>383.999963391343</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="V4" t="n">
-        <v>383.999963391343</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="W4" t="n">
-        <v>383.999963391343</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="X4" t="n">
-        <v>383.999963391343</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.999963391343</v>
+        <v>1782.514218444532</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.855777636561</v>
+        <v>444.1991153670713</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.855777636561</v>
+        <v>62.26535669987868</v>
       </c>
       <c r="D5" t="n">
-        <v>639.031812863785</v>
+        <v>62.26535669987868</v>
       </c>
       <c r="E5" t="n">
-        <v>639.031812863785</v>
+        <v>62.26535669987868</v>
       </c>
       <c r="F5" t="n">
-        <v>224.8806221739553</v>
+        <v>52.15457005045307</v>
       </c>
       <c r="G5" t="n">
-        <v>212.8170396685474</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="H5" t="n">
-        <v>212.8170396685474</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I5" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J5" t="n">
-        <v>111.9983851501491</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K5" t="n">
-        <v>352.1387571949318</v>
+        <v>352.2299038626335</v>
       </c>
       <c r="L5" t="n">
-        <v>600.827784310942</v>
+        <v>700.1152769475798</v>
       </c>
       <c r="M5" t="n">
-        <v>994.0669505640299</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N5" t="n">
-        <v>1372.398309251746</v>
+        <v>1471.387896323368</v>
       </c>
       <c r="O5" t="n">
-        <v>1677.40289372458</v>
+        <v>1776.392480796202</v>
       </c>
       <c r="P5" t="n">
-        <v>1905.559790180633</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="Q5" t="n">
-        <v>1999.99204386717</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R5" t="n">
-        <v>1909.353757363023</v>
+        <v>1919.786999610055</v>
       </c>
       <c r="S5" t="n">
-        <v>1787.42777353923</v>
+        <v>1919.786999610055</v>
       </c>
       <c r="T5" t="n">
-        <v>1787.42777353923</v>
+        <v>1919.786999610055</v>
       </c>
       <c r="U5" t="n">
-        <v>1787.42777353923</v>
+        <v>1919.786999610055</v>
       </c>
       <c r="V5" t="n">
-        <v>1787.42777353923</v>
+        <v>1582.807725505996</v>
       </c>
       <c r="W5" t="n">
-        <v>1787.42777353923</v>
+        <v>1220.272795363597</v>
       </c>
       <c r="X5" t="n">
-        <v>1405.397633060723</v>
+        <v>838.2426548850905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.855777636561</v>
+        <v>838.2426548850905</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.9924586161465</v>
+        <v>811.6028374132673</v>
       </c>
       <c r="C6" t="n">
-        <v>589.2887858571012</v>
+        <v>757.7000752880439</v>
       </c>
       <c r="D6" t="n">
-        <v>450.4501488473132</v>
+        <v>618.8614382782559</v>
       </c>
       <c r="E6" t="n">
-        <v>303.4221389041845</v>
+        <v>471.8334283351272</v>
       </c>
       <c r="F6" t="n">
-        <v>168.7283408540588</v>
+        <v>337.1396302850015</v>
       </c>
       <c r="G6" t="n">
-        <v>39.9998408773434</v>
+        <v>208.4111303082861</v>
       </c>
       <c r="H6" t="n">
-        <v>39.9998408773434</v>
+        <v>108.4732728549841</v>
       </c>
       <c r="I6" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2539874104495</v>
+        <v>100.3451340781512</v>
       </c>
       <c r="K6" t="n">
-        <v>329.7445399706382</v>
+        <v>329.8356866383399</v>
       </c>
       <c r="L6" t="n">
-        <v>695.5663851407538</v>
+        <v>695.6575318084556</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.59973865098</v>
+        <v>1180.690885318682</v>
       </c>
       <c r="N6" t="n">
-        <v>1607.792093083019</v>
+        <v>1612.349426468104</v>
       </c>
       <c r="O6" t="n">
-        <v>1999.99204386717</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="P6" t="n">
-        <v>1999.99204386717</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="Q6" t="n">
-        <v>1999.99204386717</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R6" t="n">
-        <v>1999.99204386717</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="S6" t="n">
-        <v>1847.19255687991</v>
+        <v>1851.749890264995</v>
       </c>
       <c r="T6" t="n">
-        <v>1658.507453045895</v>
+        <v>1851.749890264995</v>
       </c>
       <c r="U6" t="n">
-        <v>1440.012660644205</v>
+        <v>1633.255097863305</v>
       </c>
       <c r="V6" t="n">
-        <v>1440.012660644205</v>
+        <v>1404.859475311639</v>
       </c>
       <c r="W6" t="n">
-        <v>1198.696791877515</v>
+        <v>1163.543606544949</v>
       </c>
       <c r="X6" t="n">
-        <v>1000.77980375531</v>
+        <v>1163.543606544949</v>
       </c>
       <c r="Y6" t="n">
-        <v>910.4119013974073</v>
+        <v>971.0222801945282</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.6967178265816</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="C7" t="n">
-        <v>345.0807482882618</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="D7" t="n">
-        <v>192.0088551160246</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="E7" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="F7" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="G7" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="H7" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I7" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J7" t="n">
-        <v>39.9998408773434</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K7" t="n">
-        <v>73.6040286219868</v>
+        <v>73.69517528968851</v>
       </c>
       <c r="L7" t="n">
-        <v>174.2111080222463</v>
+        <v>174.302254689948</v>
       </c>
       <c r="M7" t="n">
-        <v>292.2046141498481</v>
+        <v>292.2957608175498</v>
       </c>
       <c r="N7" t="n">
-        <v>410.6269558994484</v>
+        <v>410.7181025671501</v>
       </c>
       <c r="O7" t="n">
-        <v>509.0906023951381</v>
+        <v>509.1817490628398</v>
       </c>
       <c r="P7" t="n">
-        <v>572.0590861232758</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="Q7" t="n">
-        <v>572.0590861232758</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="R7" t="n">
-        <v>572.0590861232758</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="S7" t="n">
-        <v>514.6967178265816</v>
+        <v>358.4404701946652</v>
       </c>
       <c r="T7" t="n">
-        <v>514.6967178265816</v>
+        <v>125.261517010344</v>
       </c>
       <c r="U7" t="n">
-        <v>514.6967178265816</v>
+        <v>125.261517010344</v>
       </c>
       <c r="V7" t="n">
-        <v>514.6967178265816</v>
+        <v>125.261517010344</v>
       </c>
       <c r="W7" t="n">
-        <v>514.6967178265816</v>
+        <v>125.261517010344</v>
       </c>
       <c r="X7" t="n">
-        <v>514.6967178265816</v>
+        <v>125.261517010344</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.6967178265816</v>
+        <v>40.0909875450451</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>831.8083099227024</v>
+        <v>1617.782472630299</v>
       </c>
       <c r="C8" t="n">
-        <v>831.8083099227024</v>
+        <v>1235.848713963107</v>
       </c>
       <c r="D8" t="n">
-        <v>458.984345149926</v>
+        <v>863.02474919033</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="F8" t="n">
         <v>54.08783860660719</v>
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1944.35957992943</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1944.35957992943</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1944.35957992943</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1607.380305825371</v>
+        <v>2011.826012148318</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.380305825371</v>
+        <v>2011.826012148318</v>
       </c>
       <c r="X8" t="n">
-        <v>1225.350165346864</v>
+        <v>2011.826012148318</v>
       </c>
       <c r="Y8" t="n">
-        <v>831.8083099227024</v>
+        <v>2011.826012148318</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>908.7703193130553</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>747.06664655401</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>608.2280095442221</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>461.1999996010933</v>
       </c>
       <c r="F9" t="n">
         <v>339.0728988411556</v>
@@ -4881,22 +4881,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>2025.835604249003</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1458.628076566943</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1260.711088444737</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>1068.189762094316</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.5110011930977</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>195.0961492734365</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T10" t="n">
-        <v>535.5461600008207</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U10" t="n">
-        <v>535.5461600008207</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="V10" t="n">
-        <v>535.5461600008207</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="W10" t="n">
-        <v>535.5461600008207</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="X10" t="n">
-        <v>535.5461600008207</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.5110011930977</v>
+        <v>202.526561153787</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1148.160811259839</v>
+        <v>1184.632862502875</v>
       </c>
       <c r="C11" t="n">
-        <v>877.8024262281631</v>
+        <v>1184.632862502875</v>
       </c>
       <c r="D11" t="n">
-        <v>877.8024262281631</v>
+        <v>930.1314368856356</v>
       </c>
       <c r="E11" t="n">
-        <v>877.8024262281631</v>
+        <v>649.9216417475088</v>
       </c>
       <c r="F11" t="n">
-        <v>575.2266091738497</v>
+        <v>350.3463758134456</v>
       </c>
       <c r="G11" t="n">
-        <v>270.6979962635539</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="H11" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I11" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J11" t="n">
-        <v>157.3496990325085</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K11" t="n">
-        <v>397.4900710772912</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L11" t="n">
-        <v>745.3754441622375</v>
+        <v>821.1384672790612</v>
       </c>
       <c r="M11" t="n">
-        <v>1247.969634115495</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N11" t="n">
-        <v>1626.300992803211</v>
+        <v>1592.708992219865</v>
       </c>
       <c r="O11" t="n">
-        <v>1931.305577276045</v>
+        <v>1982.569407923869</v>
       </c>
       <c r="P11" t="n">
-        <v>2268.817497432267</v>
+        <v>2323.022168233049</v>
       </c>
       <c r="Q11" t="n">
-        <v>2472.604774818974</v>
+        <v>2417.454421919586</v>
       </c>
       <c r="R11" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S11" t="n">
-        <v>2396.951173084844</v>
+        <v>2368.262650556119</v>
       </c>
       <c r="T11" t="n">
-        <v>2284.167600451372</v>
+        <v>2258.479629042896</v>
       </c>
       <c r="U11" t="n">
-        <v>2140.857637800882</v>
+        <v>2258.479629042896</v>
       </c>
       <c r="V11" t="n">
-        <v>1915.45373733234</v>
+        <v>2258.479629042896</v>
       </c>
       <c r="W11" t="n">
-        <v>1664.494180825457</v>
+        <v>2010.520623656264</v>
       </c>
       <c r="X11" t="n">
-        <v>1664.494180825457</v>
+        <v>1743.066407933523</v>
       </c>
       <c r="Y11" t="n">
-        <v>1430.628977142342</v>
+        <v>1464.100477265128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>833.2718741187118</v>
+        <v>861.3670693747908</v>
       </c>
       <c r="C12" t="n">
-        <v>671.5682013596665</v>
+        <v>699.6633966157456</v>
       </c>
       <c r="D12" t="n">
-        <v>628.2225462295903</v>
+        <v>560.8247596059576</v>
       </c>
       <c r="E12" t="n">
-        <v>481.1945362864616</v>
+        <v>413.7967496628289</v>
       </c>
       <c r="F12" t="n">
-        <v>346.5007382363359</v>
+        <v>279.1029516127032</v>
       </c>
       <c r="G12" t="n">
-        <v>217.7722382596205</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H12" t="n">
-        <v>117.8343808063185</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I12" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7062420294856</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K12" t="n">
-        <v>339.1967945896743</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L12" t="n">
-        <v>705.0186397597899</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M12" t="n">
-        <v>1190.051993270016</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.317639393139</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.51759017729</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.613509452987</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q12" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R12" t="n">
-        <v>2412.82050591392</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S12" t="n">
-        <v>2260.02101892666</v>
+        <v>2288.116214182739</v>
       </c>
       <c r="T12" t="n">
-        <v>2071.335915092645</v>
+        <v>2099.431110348724</v>
       </c>
       <c r="U12" t="n">
-        <v>1852.841122690955</v>
+        <v>1880.936317947034</v>
       </c>
       <c r="V12" t="n">
-        <v>1624.445500139289</v>
+        <v>1652.540695395368</v>
       </c>
       <c r="W12" t="n">
-        <v>1383.129631372599</v>
+        <v>1411.224826628678</v>
       </c>
       <c r="X12" t="n">
-        <v>1185.212643250394</v>
+        <v>1213.307838506473</v>
       </c>
       <c r="Y12" t="n">
-        <v>992.6913168999728</v>
+        <v>1020.786512156052</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.0974502214244</v>
+        <v>346.4598109066941</v>
       </c>
       <c r="C13" t="n">
-        <v>310.056854318621</v>
+        <v>291.4197661241408</v>
       </c>
       <c r="D13" t="n">
-        <v>268.5603347819</v>
+        <v>252.9237977076698</v>
       </c>
       <c r="E13" t="n">
-        <v>228.1266941787351</v>
+        <v>215.4907082247551</v>
       </c>
       <c r="F13" t="n">
-        <v>187.2214128400284</v>
+        <v>177.5859780062985</v>
       </c>
       <c r="G13" t="n">
-        <v>129.8770378433946</v>
+        <v>123.2421541299149</v>
       </c>
       <c r="H13" t="n">
-        <v>82.0797662581847</v>
+        <v>78.44543366495509</v>
       </c>
       <c r="I13" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J13" t="n">
-        <v>99.94501965857967</v>
+        <v>102.2520783385573</v>
       </c>
       <c r="K13" t="n">
-        <v>242.9042311033926</v>
+        <v>248.1521299363273</v>
       </c>
       <c r="L13" t="n">
-        <v>452.8663342038216</v>
+        <v>461.0550731897134</v>
       </c>
       <c r="M13" t="n">
-        <v>680.2148640315927</v>
+        <v>691.3444431704418</v>
       </c>
       <c r="N13" t="n">
-        <v>907.9922294813626</v>
+        <v>922.0626487731688</v>
       </c>
       <c r="O13" t="n">
-        <v>1115.810899677222</v>
+        <v>1132.822159121985</v>
       </c>
       <c r="P13" t="n">
-        <v>1288.134407105529</v>
+        <v>1308.08650670325</v>
       </c>
       <c r="Q13" t="n">
-        <v>1359.718982552179</v>
+        <v>1382.611922302857</v>
       </c>
       <c r="R13" t="n">
-        <v>1321.772574802074</v>
+        <v>1347.666065673001</v>
       </c>
       <c r="S13" t="n">
-        <v>1219.638185841277</v>
+        <v>1248.532227832455</v>
       </c>
       <c r="T13" t="n">
-        <v>1098.034606292473</v>
+        <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
-        <v>922.4197404170886</v>
+        <v>957.3148846487669</v>
       </c>
       <c r="V13" t="n">
-        <v>773.2598096110268</v>
+        <v>811.1555049629558</v>
       </c>
       <c r="W13" t="n">
-        <v>598.6787817639421</v>
+        <v>639.5750282361213</v>
       </c>
       <c r="X13" t="n">
-        <v>479.0016912948341</v>
+        <v>522.8984888872642</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.5419061226275</v>
+        <v>415.4392548353076</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>829.6047663113183</v>
+        <v>1392.624590668318</v>
       </c>
       <c r="C14" t="n">
-        <v>559.2463812796419</v>
+        <v>1125.266756756891</v>
       </c>
       <c r="D14" t="n">
-        <v>297.9977901423813</v>
+        <v>930.1314368856356</v>
       </c>
       <c r="E14" t="n">
-        <v>297.9977901423813</v>
+        <v>649.9216417475088</v>
       </c>
       <c r="F14" t="n">
-        <v>270.6979962635539</v>
+        <v>350.3463758134457</v>
       </c>
       <c r="G14" t="n">
-        <v>270.6979962635539</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="H14" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I14" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J14" t="n">
-        <v>157.3496990325085</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K14" t="n">
-        <v>397.4900710772912</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L14" t="n">
-        <v>745.3754441622375</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M14" t="n">
-        <v>1247.969634115495</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.65601650338</v>
+        <v>1592.708992219865</v>
       </c>
       <c r="O14" t="n">
-        <v>2150.015624676384</v>
+        <v>1897.713576692699</v>
       </c>
       <c r="P14" t="n">
-        <v>2378.172521132437</v>
+        <v>2234.187583630335</v>
       </c>
       <c r="Q14" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R14" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S14" t="n">
-        <v>2396.951173084844</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="T14" t="n">
-        <v>2284.167600451372</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="U14" t="n">
-        <v>2140.857637800882</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="V14" t="n">
-        <v>1915.45373733234</v>
+        <v>2218.512351821706</v>
       </c>
       <c r="W14" t="n">
-        <v>1664.494180825457</v>
+        <v>2218.512351821706</v>
       </c>
       <c r="X14" t="n">
-        <v>1394.039413982467</v>
+        <v>1951.058136098966</v>
       </c>
       <c r="Y14" t="n">
-        <v>1112.072932193821</v>
+        <v>1672.09220543057</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.7648559984235</v>
+        <v>928.131074525444</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0611832393782</v>
+        <v>766.4274017663987</v>
       </c>
       <c r="D15" t="n">
-        <v>628.2225462295903</v>
+        <v>627.5887647566108</v>
       </c>
       <c r="E15" t="n">
-        <v>481.1945362864616</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F15" t="n">
-        <v>346.5007382363359</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G15" t="n">
-        <v>217.7722382596205</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H15" t="n">
-        <v>117.8343808063185</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I15" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J15" t="n">
-        <v>49.45209549637948</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K15" t="n">
-        <v>278.9426480565681</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L15" t="n">
-        <v>624.2382753401833</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M15" t="n">
-        <v>1109.27162885041</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.537274973532</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O15" t="n">
-        <v>2012.737225757683</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P15" t="n">
-        <v>2314.83314503338</v>
+        <v>2394.979727980007</v>
       </c>
       <c r="Q15" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R15" t="n">
-        <v>2412.82050591392</v>
+        <v>2381.131432264944</v>
       </c>
       <c r="S15" t="n">
-        <v>2260.02101892666</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T15" t="n">
-        <v>2071.335915092645</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U15" t="n">
-        <v>1852.841122690955</v>
+        <v>1935.727973797746</v>
       </c>
       <c r="V15" t="n">
-        <v>1624.445500139289</v>
+        <v>1707.33235124608</v>
       </c>
       <c r="W15" t="n">
-        <v>1383.129631372599</v>
+        <v>1466.01648247939</v>
       </c>
       <c r="X15" t="n">
-        <v>1185.212643250394</v>
+        <v>1268.099494357185</v>
       </c>
       <c r="Y15" t="n">
-        <v>992.6913168999728</v>
+        <v>1087.550517306705</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.0974502214242</v>
+        <v>346.4598109066939</v>
       </c>
       <c r="C16" t="n">
-        <v>310.0568543186208</v>
+        <v>291.4197661241406</v>
       </c>
       <c r="D16" t="n">
-        <v>268.5603347818998</v>
+        <v>252.9237977076697</v>
       </c>
       <c r="E16" t="n">
-        <v>228.1266941787349</v>
+        <v>215.4907082247549</v>
       </c>
       <c r="F16" t="n">
-        <v>187.2214128400283</v>
+        <v>177.5859780062983</v>
       </c>
       <c r="G16" t="n">
-        <v>129.8770378433946</v>
+        <v>123.2421541299148</v>
       </c>
       <c r="H16" t="n">
-        <v>82.07976625818468</v>
+        <v>78.44543366495498</v>
       </c>
       <c r="I16" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J16" t="n">
-        <v>99.94501965857989</v>
+        <v>102.2520783385573</v>
       </c>
       <c r="K16" t="n">
-        <v>242.9042311033929</v>
+        <v>248.1521299363274</v>
       </c>
       <c r="L16" t="n">
-        <v>452.8663342038219</v>
+        <v>461.0550731897135</v>
       </c>
       <c r="M16" t="n">
-        <v>680.2148640315932</v>
+        <v>691.3444431704419</v>
       </c>
       <c r="N16" t="n">
-        <v>907.992229481363</v>
+        <v>922.0626487731687</v>
       </c>
       <c r="O16" t="n">
-        <v>1115.810899677222</v>
+        <v>1132.822159121985</v>
       </c>
       <c r="P16" t="n">
-        <v>1288.13440710553</v>
+        <v>1308.086506703249</v>
       </c>
       <c r="Q16" t="n">
-        <v>1359.71898255218</v>
+        <v>1382.611922302857</v>
       </c>
       <c r="R16" t="n">
-        <v>1321.772574802074</v>
+        <v>1347.666065673002</v>
       </c>
       <c r="S16" t="n">
-        <v>1219.638185841278</v>
+        <v>1248.532227832456</v>
       </c>
       <c r="T16" t="n">
-        <v>1098.034606292473</v>
+        <v>1129.929199403901</v>
       </c>
       <c r="U16" t="n">
-        <v>993.9552795647477</v>
+        <v>957.3148846487671</v>
       </c>
       <c r="V16" t="n">
-        <v>844.7953487586868</v>
+        <v>811.1555049629561</v>
       </c>
       <c r="W16" t="n">
-        <v>670.2143209116023</v>
+        <v>639.5750282361217</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5372304424943</v>
+        <v>522.8984888872637</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.0774452702877</v>
+        <v>415.4392548353073</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1322.756184793695</v>
+        <v>1308.812992388145</v>
       </c>
       <c r="C17" t="n">
-        <v>1114.041727072315</v>
+        <v>1102.316769822194</v>
       </c>
       <c r="D17" t="n">
-        <v>914.437063245352</v>
+        <v>904.9303411506592</v>
       </c>
       <c r="E17" t="n">
-        <v>692.8706442972721</v>
+        <v>685.5821573580076</v>
       </c>
       <c r="F17" t="n">
-        <v>451.9387545532558</v>
+        <v>446.8685027694196</v>
       </c>
       <c r="G17" t="n">
-        <v>209.0540689532569</v>
+        <v>206.2020523248491</v>
       </c>
       <c r="H17" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I17" t="n">
-        <v>49.84619581811206</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J17" t="n">
-        <v>145.8702964190339</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K17" t="n">
-        <v>386.0106684638167</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L17" t="n">
-        <v>733.8960415487629</v>
+        <v>708.8426034259346</v>
       </c>
       <c r="M17" t="n">
-        <v>1296.907444658842</v>
+        <v>1102.081769679022</v>
       </c>
       <c r="N17" t="n">
-        <v>1675.238803346558</v>
+        <v>1641.375637421747</v>
       </c>
       <c r="O17" t="n">
-        <v>2150.015624676384</v>
+        <v>2118.326551027408</v>
       </c>
       <c r="P17" t="n">
-        <v>2378.172521132437</v>
+        <v>2346.483447483461</v>
       </c>
       <c r="Q17" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R17" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S17" t="n">
-        <v>2458.595100395142</v>
+        <v>2429.124261901594</v>
       </c>
       <c r="T17" t="n">
-        <v>2407.455455071966</v>
+        <v>2380.202851733847</v>
       </c>
       <c r="U17" t="n">
-        <v>2325.789419731774</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V17" t="n">
-        <v>2162.029446573528</v>
+        <v>2139.213313546265</v>
       </c>
       <c r="W17" t="n">
-        <v>1972.713817376942</v>
+        <v>1952.115919505108</v>
       </c>
       <c r="X17" t="n">
-        <v>1763.902977844249</v>
+        <v>1745.523315127843</v>
       </c>
       <c r="Y17" t="n">
-        <v>1543.5804233659</v>
+        <v>1527.418995804922</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>833.2718741187118</v>
+        <v>801.582800469736</v>
       </c>
       <c r="C18" t="n">
-        <v>671.5682013596665</v>
+        <v>639.8791277106907</v>
       </c>
       <c r="D18" t="n">
-        <v>532.7295643498786</v>
+        <v>627.5887647566108</v>
       </c>
       <c r="E18" t="n">
-        <v>385.7015544067498</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F18" t="n">
-        <v>251.0077563566242</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G18" t="n">
-        <v>122.2792563799088</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H18" t="n">
-        <v>117.8343808063185</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I18" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7062420294856</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K18" t="n">
-        <v>339.1967945896743</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L18" t="n">
-        <v>705.0186397597899</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M18" t="n">
-        <v>1190.051993270016</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.317639393139</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.51759017729</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P18" t="n">
-        <v>2395.613509452987</v>
+        <v>2394.979727980007</v>
       </c>
       <c r="Q18" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R18" t="n">
-        <v>2412.82050591392</v>
+        <v>2381.131432264944</v>
       </c>
       <c r="S18" t="n">
-        <v>2260.02101892666</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T18" t="n">
-        <v>2071.335915092645</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U18" t="n">
-        <v>1852.841122690955</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V18" t="n">
-        <v>1624.445500139289</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W18" t="n">
-        <v>1383.129631372599</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X18" t="n">
-        <v>1185.212643250394</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y18" t="n">
-        <v>992.6913168999728</v>
+        <v>961.0022432509969</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="C19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="D19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="E19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="F19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="G19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="H19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J19" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="K19" t="n">
-        <v>83.0562832410229</v>
+        <v>82.42250176804338</v>
       </c>
       <c r="L19" t="n">
-        <v>183.6633626412824</v>
+        <v>183.0295811683029</v>
       </c>
       <c r="M19" t="n">
-        <v>301.6568687688841</v>
+        <v>301.0230872959046</v>
       </c>
       <c r="N19" t="n">
-        <v>420.0792105184845</v>
+        <v>419.445429045505</v>
       </c>
       <c r="O19" t="n">
-        <v>518.5428570141742</v>
+        <v>517.9090755411946</v>
       </c>
       <c r="P19" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="R19" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="S19" t="n">
-        <v>541.0208790918126</v>
+        <v>542.6053327742616</v>
       </c>
       <c r="T19" t="n">
-        <v>481.0612268533047</v>
+        <v>484.863915691182</v>
       </c>
       <c r="U19" t="n">
-        <v>367.0902882882178</v>
+        <v>373.1112122815235</v>
       </c>
       <c r="V19" t="n">
-        <v>279.5742847924537</v>
+        <v>287.8134439411877</v>
       </c>
       <c r="W19" t="n">
-        <v>166.6371842556662</v>
+        <v>177.0945785598284</v>
       </c>
       <c r="X19" t="n">
-        <v>108.6040210968553</v>
+        <v>121.2796505564458</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.78816323494573</v>
+        <v>74.68202784996454</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1322.756184793694</v>
+        <v>1308.812992388145</v>
       </c>
       <c r="C20" t="n">
-        <v>1114.041727072315</v>
+        <v>1102.316769822194</v>
       </c>
       <c r="D20" t="n">
-        <v>914.4370632453515</v>
+        <v>904.930341150659</v>
       </c>
       <c r="E20" t="n">
-        <v>692.8706442972716</v>
+        <v>685.5821573580075</v>
       </c>
       <c r="F20" t="n">
-        <v>451.9387545532554</v>
+        <v>446.8685027694194</v>
       </c>
       <c r="G20" t="n">
-        <v>209.0540689532569</v>
+        <v>206.2020523248491</v>
       </c>
       <c r="H20" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I20" t="n">
-        <v>49.84619581811206</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J20" t="n">
-        <v>121.8447400909177</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K20" t="n">
-        <v>361.9851121357005</v>
+        <v>532.9035594738153</v>
       </c>
       <c r="L20" t="n">
-        <v>709.8704852206467</v>
+        <v>880.7889325587616</v>
       </c>
       <c r="M20" t="n">
-        <v>1103.109651473735</v>
+        <v>1274.02809881185</v>
       </c>
       <c r="N20" t="n">
-        <v>1481.44101016145</v>
+        <v>1730.210222024461</v>
       </c>
       <c r="O20" t="n">
-        <v>1956.217831491276</v>
+        <v>2035.214806497296</v>
       </c>
       <c r="P20" t="n">
-        <v>2208.400284275445</v>
+        <v>2263.371702953349</v>
       </c>
       <c r="Q20" t="n">
-        <v>2472.604774818974</v>
+        <v>2357.803956639886</v>
       </c>
       <c r="R20" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S20" t="n">
-        <v>2458.595100395141</v>
+        <v>2429.124261901594</v>
       </c>
       <c r="T20" t="n">
-        <v>2407.455455071966</v>
+        <v>2380.202851733847</v>
       </c>
       <c r="U20" t="n">
-        <v>2325.789419731773</v>
+        <v>2300.755051549083</v>
       </c>
       <c r="V20" t="n">
-        <v>2162.029446573528</v>
+        <v>2139.213313546266</v>
       </c>
       <c r="W20" t="n">
-        <v>1972.713817376942</v>
+        <v>1952.115919505109</v>
       </c>
       <c r="X20" t="n">
-        <v>1763.902977844249</v>
+        <v>1745.523315127843</v>
       </c>
       <c r="Y20" t="n">
-        <v>1543.5804233659</v>
+        <v>1527.418995804923</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.7648559984235</v>
+        <v>801.5828004697364</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0611832393782</v>
+        <v>639.8791277106911</v>
       </c>
       <c r="D21" t="n">
-        <v>628.2225462295903</v>
+        <v>501.0404907009032</v>
       </c>
       <c r="E21" t="n">
-        <v>481.1945362864616</v>
+        <v>354.0124807577744</v>
       </c>
       <c r="F21" t="n">
-        <v>346.5007382363359</v>
+        <v>219.3186827076488</v>
       </c>
       <c r="G21" t="n">
-        <v>217.7722382596205</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H21" t="n">
-        <v>117.8343808063185</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I21" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J21" t="n">
-        <v>49.45209549637948</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K21" t="n">
-        <v>258.4164301700677</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L21" t="n">
-        <v>624.2382753401833</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M21" t="n">
-        <v>1109.27162885041</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N21" t="n">
-        <v>1620.537274973532</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O21" t="n">
-        <v>2012.737225757683</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P21" t="n">
-        <v>2314.83314503338</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q21" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R21" t="n">
-        <v>2472.604774818974</v>
+        <v>2381.131432264944</v>
       </c>
       <c r="S21" t="n">
-        <v>2319.805287831714</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T21" t="n">
-        <v>2131.1201839977</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U21" t="n">
-        <v>1912.62539159601</v>
+        <v>1821.15204904198</v>
       </c>
       <c r="V21" t="n">
-        <v>1719.938482019001</v>
+        <v>1592.756426490314</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.622613252311</v>
+        <v>1351.440557723624</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.705625130106</v>
+        <v>1153.523569601419</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.184298779684</v>
+        <v>961.0022432509974</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.45209549637935</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="C22" t="n">
-        <v>49.45209549637948</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="D22" t="n">
-        <v>49.45209549637948</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="E22" t="n">
-        <v>49.45209549637948</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="F22" t="n">
-        <v>49.45209549637948</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="G22" t="n">
-        <v>49.45209549637948</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="H22" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I22" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J22" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="K22" t="n">
-        <v>83.0562832410229</v>
+        <v>82.42250176804339</v>
       </c>
       <c r="L22" t="n">
-        <v>183.6633626412824</v>
+        <v>183.0295811683029</v>
       </c>
       <c r="M22" t="n">
-        <v>301.6568687688841</v>
+        <v>301.0230872959046</v>
       </c>
       <c r="N22" t="n">
-        <v>420.0792105184845</v>
+        <v>419.445429045505</v>
       </c>
       <c r="O22" t="n">
-        <v>518.5428570141742</v>
+        <v>517.9090755411947</v>
       </c>
       <c r="P22" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="Q22" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="R22" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="S22" t="n">
-        <v>541.0208790918128</v>
+        <v>542.6053327742617</v>
       </c>
       <c r="T22" t="n">
-        <v>481.061226853305</v>
+        <v>484.8639156911821</v>
       </c>
       <c r="U22" t="n">
-        <v>367.0902882882181</v>
+        <v>373.1112122815236</v>
       </c>
       <c r="V22" t="n">
-        <v>279.574284792454</v>
+        <v>287.8134439411878</v>
       </c>
       <c r="W22" t="n">
-        <v>166.6371842556664</v>
+        <v>177.0945785598286</v>
       </c>
       <c r="X22" t="n">
-        <v>108.6040210968555</v>
+        <v>121.2796505564459</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.78816323494588</v>
+        <v>74.68202784996465</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1322.756184793695</v>
+        <v>1308.812992388145</v>
       </c>
       <c r="C23" t="n">
-        <v>1114.041727072315</v>
+        <v>1102.316769822194</v>
       </c>
       <c r="D23" t="n">
-        <v>914.437063245352</v>
+        <v>904.9303411506592</v>
       </c>
       <c r="E23" t="n">
-        <v>692.8706442972721</v>
+        <v>685.5821573580076</v>
       </c>
       <c r="F23" t="n">
-        <v>451.9387545532559</v>
+        <v>446.8685027694194</v>
       </c>
       <c r="G23" t="n">
-        <v>209.0540689532569</v>
+        <v>206.2020523248491</v>
       </c>
       <c r="H23" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I23" t="n">
-        <v>49.84619581811206</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J23" t="n">
-        <v>291.6169769479093</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K23" t="n">
-        <v>531.7573489926921</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L23" t="n">
-        <v>879.6427220776384</v>
+        <v>880.7889325587615</v>
       </c>
       <c r="M23" t="n">
-        <v>1272.881888330726</v>
+        <v>1274.02809881185</v>
       </c>
       <c r="N23" t="n">
-        <v>1651.213247018442</v>
+        <v>1813.321966554574</v>
       </c>
       <c r="O23" t="n">
-        <v>1980.243387819392</v>
+        <v>2118.326551027408</v>
       </c>
       <c r="P23" t="n">
-        <v>2378.172521132437</v>
+        <v>2346.483447483462</v>
       </c>
       <c r="Q23" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R23" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.595100395141</v>
+        <v>2429.124261901594</v>
       </c>
       <c r="T23" t="n">
-        <v>2407.455455071966</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U23" t="n">
-        <v>2325.789419731773</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V23" t="n">
-        <v>2162.029446573528</v>
+        <v>2139.213313546265</v>
       </c>
       <c r="W23" t="n">
-        <v>1972.713817376943</v>
+        <v>1952.115919505108</v>
       </c>
       <c r="X23" t="n">
-        <v>1763.902977844249</v>
+        <v>1745.523315127843</v>
       </c>
       <c r="Y23" t="n">
-        <v>1543.5804233659</v>
+        <v>1527.418995804923</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>860.3825706884844</v>
+        <v>928.131074525444</v>
       </c>
       <c r="C24" t="n">
-        <v>698.6788979294391</v>
+        <v>766.4274017663987</v>
       </c>
       <c r="D24" t="n">
-        <v>559.8402609196512</v>
+        <v>627.5887647566108</v>
       </c>
       <c r="E24" t="n">
-        <v>412.8122509765225</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F24" t="n">
-        <v>278.1184529263969</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G24" t="n">
-        <v>149.3899529496814</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H24" t="n">
-        <v>49.45209549637948</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I24" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J24" t="n">
-        <v>49.45209549637948</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K24" t="n">
-        <v>258.4164301700677</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L24" t="n">
-        <v>624.2382753401833</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M24" t="n">
-        <v>1109.27162885041</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N24" t="n">
-        <v>1620.537274973532</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O24" t="n">
-        <v>2012.737225757683</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P24" t="n">
-        <v>2314.83314503338</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q24" t="n">
-        <v>2472.604774818974</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R24" t="n">
-        <v>2412.82050591392</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S24" t="n">
-        <v>2287.131715496432</v>
+        <v>2288.116214182739</v>
       </c>
       <c r="T24" t="n">
-        <v>2098.446611662418</v>
+        <v>2099.431110348724</v>
       </c>
       <c r="U24" t="n">
-        <v>1879.951819260728</v>
+        <v>1880.936317947034</v>
       </c>
       <c r="V24" t="n">
-        <v>1651.556196709062</v>
+        <v>1652.540695395368</v>
       </c>
       <c r="W24" t="n">
-        <v>1410.240327942372</v>
+        <v>1411.224826628678</v>
       </c>
       <c r="X24" t="n">
-        <v>1212.323339820166</v>
+        <v>1280.071843657126</v>
       </c>
       <c r="Y24" t="n">
-        <v>1019.802013469745</v>
+        <v>1087.550517306705</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.45209549637935</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="C25" t="n">
-        <v>49.45209549637935</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="D25" t="n">
-        <v>49.45209549637935</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="E25" t="n">
-        <v>49.45209549637935</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="F25" t="n">
-        <v>49.45209549637935</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="G25" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="H25" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I25" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J25" t="n">
-        <v>49.45209549637948</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="K25" t="n">
-        <v>83.0562832410229</v>
+        <v>82.42250176804339</v>
       </c>
       <c r="L25" t="n">
-        <v>183.6633626412824</v>
+        <v>183.0295811683029</v>
       </c>
       <c r="M25" t="n">
-        <v>301.6568687688841</v>
+        <v>301.0230872959046</v>
       </c>
       <c r="N25" t="n">
-        <v>420.0792105184845</v>
+        <v>419.445429045505</v>
       </c>
       <c r="O25" t="n">
-        <v>518.5428570141742</v>
+        <v>517.9090755411947</v>
       </c>
       <c r="P25" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="R25" t="n">
-        <v>581.511340742312</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="S25" t="n">
-        <v>541.0208790918128</v>
+        <v>542.6053327742617</v>
       </c>
       <c r="T25" t="n">
-        <v>481.061226853305</v>
+        <v>484.8639156911821</v>
       </c>
       <c r="U25" t="n">
-        <v>367.0902882882181</v>
+        <v>373.1112122815236</v>
       </c>
       <c r="V25" t="n">
-        <v>279.574284792454</v>
+        <v>287.8134439411878</v>
       </c>
       <c r="W25" t="n">
-        <v>166.6371842556664</v>
+        <v>177.0945785598286</v>
       </c>
       <c r="X25" t="n">
-        <v>108.6040210968555</v>
+        <v>121.2796505564459</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.78816323494588</v>
+        <v>74.68202784996465</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1743.958549454156</v>
+        <v>1743.233621313475</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.60071554273</v>
+        <v>1475.875787402048</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.352675525719</v>
+        <v>1217.627747385038</v>
       </c>
       <c r="E26" t="n">
-        <v>938.1428803875926</v>
+        <v>937.4179522469115</v>
       </c>
       <c r="F26" t="n">
-        <v>638.5676144535294</v>
+        <v>637.8426863128482</v>
       </c>
       <c r="G26" t="n">
-        <v>337.0395526634837</v>
+        <v>336.3146245228025</v>
       </c>
       <c r="H26" t="n">
-        <v>118.7942030165594</v>
+        <v>118.0692748758782</v>
       </c>
       <c r="I26" t="n">
-        <v>60.55292898112182</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J26" t="n">
-        <v>244.8473371070541</v>
+        <v>244.1224089663729</v>
       </c>
       <c r="K26" t="n">
-        <v>597.2835730049635</v>
+        <v>596.5586448642823</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.464809943036</v>
+        <v>1056.739881802355</v>
       </c>
       <c r="M26" t="n">
-        <v>1562.999840049251</v>
+        <v>1562.27491190857</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.627062590093</v>
+        <v>2052.902134449412</v>
       </c>
       <c r="O26" t="n">
-        <v>2470.927510916054</v>
+        <v>2420.757884922774</v>
       </c>
       <c r="P26" t="n">
-        <v>2811.380271225234</v>
+        <v>2761.210645231954</v>
       </c>
       <c r="Q26" t="n">
-        <v>3018.108388764897</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R26" t="n">
-        <v>3027.646449056091</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S26" t="n">
-        <v>2954.993398442211</v>
+        <v>2918.746991408151</v>
       </c>
       <c r="T26" t="n">
-        <v>2845.210376928989</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U26" t="n">
-        <v>2704.90096539875</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="V26" t="n">
-        <v>2704.90096539875</v>
+        <v>2586.560620546636</v>
       </c>
       <c r="W26" t="n">
-        <v>2456.941960012117</v>
+        <v>2338.601615160003</v>
       </c>
       <c r="X26" t="n">
-        <v>2189.487744289377</v>
+        <v>2301.667166744123</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.426164216409</v>
+        <v>2022.701236075728</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.865689483166</v>
+        <v>924.4281438823803</v>
       </c>
       <c r="C27" t="n">
-        <v>778.1620167241207</v>
+        <v>762.724471123335</v>
       </c>
       <c r="D27" t="n">
-        <v>639.3233797143328</v>
+        <v>623.885834113547</v>
       </c>
       <c r="E27" t="n">
-        <v>492.2953697712039</v>
+        <v>491.5704416305226</v>
       </c>
       <c r="F27" t="n">
-        <v>357.6015717210782</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G27" t="n">
-        <v>228.8730717443628</v>
+        <v>228.1481436036815</v>
       </c>
       <c r="H27" t="n">
-        <v>128.9352142910608</v>
+        <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>60.55292898112182</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J27" t="n">
-        <v>120.807075514228</v>
+        <v>120.0821473735467</v>
       </c>
       <c r="K27" t="n">
-        <v>350.2976280744166</v>
+        <v>349.5726999337354</v>
       </c>
       <c r="L27" t="n">
-        <v>716.1194732445322</v>
+        <v>715.394545103851</v>
       </c>
       <c r="M27" t="n">
-        <v>1201.152826754759</v>
+        <v>1200.427898614078</v>
       </c>
       <c r="N27" t="n">
-        <v>1712.418472877881</v>
+        <v>1711.6935447372</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.618423662032</v>
+        <v>2103.893495521351</v>
       </c>
       <c r="P27" t="n">
-        <v>2406.714342937729</v>
+        <v>2405.989414797048</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.485972723323</v>
+        <v>2563.761044582642</v>
       </c>
       <c r="R27" t="n">
-        <v>2519.414321278373</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S27" t="n">
-        <v>2366.614834291114</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T27" t="n">
-        <v>2177.929730457099</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.434938055409</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.039315503743</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W27" t="n">
-        <v>1489.723446737053</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.806458614848</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.285132264427</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.1944258644157</v>
+        <v>357.4694977237345</v>
       </c>
       <c r="C28" t="n">
-        <v>303.1543810818624</v>
+        <v>302.4294529411811</v>
       </c>
       <c r="D28" t="n">
-        <v>264.6584126653914</v>
+        <v>263.9334845247104</v>
       </c>
       <c r="E28" t="n">
-        <v>227.2253231824767</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F28" t="n">
-        <v>189.3205929640201</v>
+        <v>188.5956648233391</v>
       </c>
       <c r="G28" t="n">
-        <v>134.9767690876365</v>
+        <v>134.2518409469555</v>
       </c>
       <c r="H28" t="n">
-        <v>90.18004862267688</v>
+        <v>89.45512048199569</v>
       </c>
       <c r="I28" t="n">
-        <v>60.55292898112182</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J28" t="n">
-        <v>113.9866932962792</v>
+        <v>113.2617651555978</v>
       </c>
       <c r="K28" t="n">
-        <v>259.8867448940493</v>
+        <v>259.161816753368</v>
       </c>
       <c r="L28" t="n">
-        <v>472.7896881474354</v>
+        <v>472.0647600067542</v>
       </c>
       <c r="M28" t="n">
-        <v>703.0790581281638</v>
+        <v>702.3541299874826</v>
       </c>
       <c r="N28" t="n">
-        <v>933.7972637308906</v>
+        <v>933.0723355902096</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.556774079707</v>
+        <v>1143.831845939026</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.821121660971</v>
+        <v>1319.09619352029</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.346537260579</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.400680630723</v>
+        <v>1358.675752490042</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.266842790177</v>
+        <v>1259.541914649496</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.663814361623</v>
+        <v>1140.938886220941</v>
       </c>
       <c r="U28" t="n">
-        <v>969.049499606489</v>
+        <v>968.3245714658077</v>
       </c>
       <c r="V28" t="n">
-        <v>822.8901199206779</v>
+        <v>822.1651917799967</v>
       </c>
       <c r="W28" t="n">
-        <v>651.3096431938435</v>
+        <v>650.5847150531623</v>
       </c>
       <c r="X28" t="n">
-        <v>534.6331038449857</v>
+        <v>533.9081757043044</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.1738697930292</v>
+        <v>426.4489416523479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1408.650849510438</v>
+        <v>1417.63451336661</v>
       </c>
       <c r="C29" t="n">
-        <v>1408.650849510438</v>
+        <v>1417.63451336661</v>
       </c>
       <c r="D29" t="n">
-        <v>1150.402809493428</v>
+        <v>1159.3864733496</v>
       </c>
       <c r="E29" t="n">
-        <v>870.1930143553011</v>
+        <v>879.1766782114737</v>
       </c>
       <c r="F29" t="n">
-        <v>580.3263404180916</v>
+        <v>579.6014122774104</v>
       </c>
       <c r="G29" t="n">
-        <v>278.7982786280461</v>
+        <v>278.0733504873649</v>
       </c>
       <c r="H29" t="n">
-        <v>60.55292898112182</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="I29" t="n">
-        <v>60.55292898112182</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J29" t="n">
-        <v>244.8473371070541</v>
+        <v>244.1224089663729</v>
       </c>
       <c r="K29" t="n">
-        <v>597.2835730049635</v>
+        <v>596.5586448642823</v>
       </c>
       <c r="L29" t="n">
-        <v>1057.464809943036</v>
+        <v>1056.739881802355</v>
       </c>
       <c r="M29" t="n">
-        <v>1562.999840049251</v>
+        <v>1562.27491190857</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.627062590093</v>
+        <v>2052.902134449412</v>
       </c>
       <c r="O29" t="n">
-        <v>2457.004291956835</v>
+        <v>2420.757884922774</v>
       </c>
       <c r="P29" t="n">
-        <v>2797.457052266015</v>
+        <v>2761.210645231954</v>
       </c>
       <c r="Q29" t="n">
-        <v>3004.185169805678</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R29" t="n">
-        <v>3027.646449056091</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S29" t="n">
-        <v>2954.993398442211</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T29" t="n">
-        <v>2845.210376928989</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U29" t="n">
-        <v>2704.900965398749</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V29" t="n">
-        <v>2482.497616050457</v>
+        <v>2446.251209016395</v>
       </c>
       <c r="W29" t="n">
-        <v>2234.538610663824</v>
+        <v>2198.292203629763</v>
       </c>
       <c r="X29" t="n">
-        <v>1967.084394941084</v>
+        <v>1976.068058797259</v>
       </c>
       <c r="Y29" t="n">
-        <v>1688.118464272688</v>
+        <v>1697.102128128863</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.865689483166</v>
+        <v>939.1407613424846</v>
       </c>
       <c r="C30" t="n">
-        <v>778.1620167241207</v>
+        <v>777.4370885834393</v>
       </c>
       <c r="D30" t="n">
-        <v>639.3233797143328</v>
+        <v>638.5984515736513</v>
       </c>
       <c r="E30" t="n">
-        <v>492.2953697712039</v>
+        <v>491.5704416305226</v>
       </c>
       <c r="F30" t="n">
-        <v>357.6015717210782</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G30" t="n">
-        <v>228.8730717443628</v>
+        <v>228.1481436036815</v>
       </c>
       <c r="H30" t="n">
-        <v>128.9352142910608</v>
+        <v>128.2102861503796</v>
       </c>
       <c r="I30" t="n">
-        <v>60.55292898112182</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J30" t="n">
-        <v>120.807075514228</v>
+        <v>120.0821473735467</v>
       </c>
       <c r="K30" t="n">
-        <v>350.2976280744166</v>
+        <v>349.5726999337354</v>
       </c>
       <c r="L30" t="n">
-        <v>716.1194732445322</v>
+        <v>715.394545103851</v>
       </c>
       <c r="M30" t="n">
-        <v>1201.152826754759</v>
+        <v>1200.427898614078</v>
       </c>
       <c r="N30" t="n">
-        <v>1712.418472877881</v>
+        <v>1711.6935447372</v>
       </c>
       <c r="O30" t="n">
-        <v>2104.618423662032</v>
+        <v>2103.893495521351</v>
       </c>
       <c r="P30" t="n">
-        <v>2406.714342937729</v>
+        <v>2405.989414797048</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.485972723323</v>
+        <v>2563.761044582642</v>
       </c>
       <c r="R30" t="n">
-        <v>2504.701703818269</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S30" t="n">
-        <v>2351.902216831009</v>
+        <v>2365.889906150433</v>
       </c>
       <c r="T30" t="n">
-        <v>2163.217112996995</v>
+        <v>2177.204802316418</v>
       </c>
       <c r="U30" t="n">
-        <v>1944.722320595305</v>
+        <v>1958.710009914728</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.039315503743</v>
+        <v>1730.314387363062</v>
       </c>
       <c r="W30" t="n">
-        <v>1489.723446737053</v>
+        <v>1488.998518596372</v>
       </c>
       <c r="X30" t="n">
-        <v>1291.806458614848</v>
+        <v>1291.081530474167</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.285132264427</v>
+        <v>1098.560204123746</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.1944258644155</v>
+        <v>357.4694977237345</v>
       </c>
       <c r="C31" t="n">
-        <v>303.1543810818623</v>
+        <v>302.4294529411813</v>
       </c>
       <c r="D31" t="n">
-        <v>264.6584126653914</v>
+        <v>263.9334845247104</v>
       </c>
       <c r="E31" t="n">
-        <v>227.2253231824766</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F31" t="n">
-        <v>189.3205929640201</v>
+        <v>188.5956648233391</v>
       </c>
       <c r="G31" t="n">
-        <v>134.9767690876367</v>
+        <v>134.2518409469556</v>
       </c>
       <c r="H31" t="n">
-        <v>90.18004862267691</v>
+        <v>89.45512048199569</v>
       </c>
       <c r="I31" t="n">
-        <v>60.55292898112182</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J31" t="n">
-        <v>113.9866932962793</v>
+        <v>113.2617651555981</v>
       </c>
       <c r="K31" t="n">
-        <v>259.8867448940496</v>
+        <v>259.1618167533684</v>
       </c>
       <c r="L31" t="n">
-        <v>472.7896881474356</v>
+        <v>472.0647600067545</v>
       </c>
       <c r="M31" t="n">
-        <v>703.079058128164</v>
+        <v>702.3541299874828</v>
       </c>
       <c r="N31" t="n">
-        <v>933.797263730891</v>
+        <v>933.0723355902098</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.556774079707</v>
+        <v>1143.831845939026</v>
       </c>
       <c r="P31" t="n">
-        <v>1319.821121660972</v>
+        <v>1319.096193520291</v>
       </c>
       <c r="Q31" t="n">
-        <v>1394.346537260579</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.400680630723</v>
+        <v>1358.675752490042</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.266842790177</v>
+        <v>1259.541914649496</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.663814361622</v>
+        <v>1140.938886220942</v>
       </c>
       <c r="U31" t="n">
-        <v>969.0494996064888</v>
+        <v>968.3245714658078</v>
       </c>
       <c r="V31" t="n">
-        <v>822.8901199206778</v>
+        <v>822.1651917799968</v>
       </c>
       <c r="W31" t="n">
-        <v>651.3096431938433</v>
+        <v>650.5847150531623</v>
       </c>
       <c r="X31" t="n">
-        <v>534.6331038449854</v>
+        <v>533.9081757043044</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.1738697930289</v>
+        <v>426.4489416523479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1539.16557947106</v>
+        <v>1524.03932831595</v>
       </c>
       <c r="C32" t="n">
-        <v>1300.774681953811</v>
+        <v>1287.718783610434</v>
       </c>
       <c r="D32" t="n">
-        <v>1071.493578330978</v>
+        <v>1060.508032799334</v>
       </c>
       <c r="E32" t="n">
-        <v>820.2507195870282</v>
+        <v>811.3355268671176</v>
       </c>
       <c r="F32" t="n">
-        <v>549.642390047142</v>
+        <v>542.7975501389644</v>
       </c>
       <c r="G32" t="n">
-        <v>277.0812646512736</v>
+        <v>272.3067775548288</v>
       </c>
       <c r="H32" t="n">
-        <v>87.8028513985265</v>
+        <v>85.09871711381395</v>
       </c>
       <c r="I32" t="n">
-        <v>58.52851375726599</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2134162431312</v>
+        <v>129.8932765570922</v>
       </c>
       <c r="K32" t="n">
-        <v>564.778848759542</v>
+        <v>512.7491596057141</v>
       </c>
       <c r="L32" t="n">
-        <v>1053.350580057548</v>
+        <v>870.8293842416145</v>
       </c>
       <c r="M32" t="n">
-        <v>1446.589746310636</v>
+        <v>1406.784061498542</v>
       </c>
       <c r="N32" t="n">
-        <v>1965.607463211411</v>
+        <v>1927.830931190097</v>
       </c>
       <c r="O32" t="n">
-        <v>2270.612047684245</v>
+        <v>2375.55102666677</v>
       </c>
       <c r="P32" t="n">
-        <v>2639.455302353358</v>
+        <v>2746.423434126662</v>
       </c>
       <c r="Q32" t="n">
-        <v>2874.573914252954</v>
+        <v>2840.855687813199</v>
       </c>
       <c r="R32" t="n">
-        <v>2926.4256878633</v>
+        <v>2894.736614214324</v>
       </c>
       <c r="S32" t="n">
-        <v>2882.739573643597</v>
+        <v>2853.120852806355</v>
       </c>
       <c r="T32" t="n">
-        <v>2801.923488524552</v>
+        <v>2774.375120499043</v>
       </c>
       <c r="U32" t="n">
-        <v>2690.581013388488</v>
+        <v>2665.102998174713</v>
       </c>
       <c r="V32" t="n">
-        <v>2497.144600434373</v>
+        <v>2473.736938032331</v>
       </c>
       <c r="W32" t="n">
-        <v>2278.152531441918</v>
+        <v>2256.815221851608</v>
       </c>
       <c r="X32" t="n">
-        <v>2039.665252113355</v>
+        <v>2020.398295334778</v>
       </c>
       <c r="Y32" t="n">
-        <v>1789.666257839136</v>
+        <v>1772.469653872293</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.8412742593101</v>
+        <v>937.2074927863306</v>
       </c>
       <c r="C33" t="n">
-        <v>776.1376015002649</v>
+        <v>775.5038200272853</v>
       </c>
       <c r="D33" t="n">
-        <v>637.2989644904769</v>
+        <v>636.6651830174974</v>
       </c>
       <c r="E33" t="n">
-        <v>490.2709545473481</v>
+        <v>489.6371730743685</v>
       </c>
       <c r="F33" t="n">
-        <v>355.5771564972224</v>
+        <v>354.9433750242429</v>
       </c>
       <c r="G33" t="n">
-        <v>226.8486565205069</v>
+        <v>226.2148750475275</v>
       </c>
       <c r="H33" t="n">
-        <v>126.910799067205</v>
+        <v>126.2770175942255</v>
       </c>
       <c r="I33" t="n">
-        <v>58.52851375726599</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="J33" t="n">
-        <v>118.7826602903721</v>
+        <v>118.1488788173926</v>
       </c>
       <c r="K33" t="n">
-        <v>348.2732128505608</v>
+        <v>347.6394313775813</v>
       </c>
       <c r="L33" t="n">
-        <v>714.0950580206764</v>
+        <v>713.4612765476969</v>
       </c>
       <c r="M33" t="n">
-        <v>1199.128411530903</v>
+        <v>1198.494630057923</v>
       </c>
       <c r="N33" t="n">
-        <v>1710.394057654025</v>
+        <v>1709.760276181045</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.594008438176</v>
+        <v>2101.960226965196</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.689927713873</v>
+        <v>2404.056146240894</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.461557499467</v>
+        <v>2561.827776026488</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.389906054518</v>
+        <v>2502.043507121433</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.590419067258</v>
+        <v>2349.244020134174</v>
       </c>
       <c r="T33" t="n">
-        <v>2175.905315233244</v>
+        <v>2160.558916300159</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.410522831554</v>
+        <v>1942.064123898469</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.014900279888</v>
+        <v>1728.381118806908</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.699031513197</v>
+        <v>1487.065250040218</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.782043390992</v>
+        <v>1289.148261918013</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.260717040571</v>
+        <v>1096.626935567592</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.4014558813203</v>
+        <v>139.6853742905645</v>
       </c>
       <c r="C34" t="n">
-        <v>127.328347492944</v>
+        <v>115.6826187139214</v>
       </c>
       <c r="D34" t="n">
-        <v>117.7993154706502</v>
+        <v>108.2239395033606</v>
       </c>
       <c r="E34" t="n">
-        <v>109.3331623819126</v>
+        <v>101.828139226356</v>
       </c>
       <c r="F34" t="n">
-        <v>100.3953685576332</v>
+        <v>94.96069821380961</v>
       </c>
       <c r="G34" t="n">
-        <v>75.01848107542666</v>
+        <v>71.65416354333614</v>
       </c>
       <c r="H34" t="n">
-        <v>59.18869700464398</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="I34" t="n">
-        <v>58.52851375726599</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="J34" t="n">
-        <v>115.4191780578379</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="K34" t="n">
-        <v>149.0233658024813</v>
+        <v>91.49892002892989</v>
       </c>
       <c r="L34" t="n">
-        <v>249.6304452027408</v>
+        <v>334.8215104330285</v>
       </c>
       <c r="M34" t="n">
-        <v>367.6239513303425</v>
+        <v>473.9318998562695</v>
       </c>
       <c r="N34" t="n">
-        <v>626.7326512930025</v>
+        <v>592.3542416058699</v>
       </c>
       <c r="O34" t="n">
-        <v>865.8826560017518</v>
+        <v>833.5333991053988</v>
       </c>
       <c r="P34" t="n">
-        <v>928.8511397298896</v>
+        <v>896.5018828335366</v>
       </c>
       <c r="Q34" t="n">
-        <v>928.8511397298896</v>
+        <v>896.5018828335366</v>
       </c>
       <c r="R34" t="n">
-        <v>922.8722194942113</v>
+        <v>892.5933154095914</v>
       </c>
       <c r="S34" t="n">
-        <v>852.7053180478424</v>
+        <v>824.4967667749554</v>
       </c>
       <c r="T34" t="n">
-        <v>763.0692260134647</v>
+        <v>736.9310275523108</v>
       </c>
       <c r="U34" t="n">
-        <v>619.4218476525081</v>
+        <v>595.3540020030872</v>
       </c>
       <c r="V34" t="n">
-        <v>502.2294043608742</v>
+        <v>480.2319115231863</v>
       </c>
       <c r="W34" t="n">
-        <v>359.6158640282168</v>
+        <v>339.6887240022619</v>
       </c>
       <c r="X34" t="n">
-        <v>271.906261073536</v>
+        <v>254.0494738593142</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.4139634157566</v>
+        <v>177.6275290132678</v>
       </c>
     </row>
     <row r="35">
@@ -6944,7 +6944,7 @@
         <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
         <v>1811.631037687489</v>
@@ -6953,10 +6953,10 @@
         <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
         <v>219.4208171253267</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7096,7 +7096,7 @@
         <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
         <v>231.5307021686421</v>
@@ -7169,28 +7169,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2749745479474</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927301</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776764</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930764</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1687.339019109512</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
         <v>2479.400528215969</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
         <v>348.1493171020421</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7281,22 +7281,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L40" t="n">
         <v>231.5307021686421</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E41" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F41" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G41" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556529</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N41" t="n">
         <v>1811.631037687489</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P41" t="n">
-        <v>2344.792518616376</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7454,7 +7454,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
         <v>768.7097621050845</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749095</v>
       </c>
       <c r="C43" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D43" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E43" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F43" t="n">
-        <v>66.12215891288227</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G43" t="n">
-        <v>65.00954678826454</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>65.00954678826454</v>
+        <v>59.36731927228435</v>
       </c>
       <c r="I43" t="n">
-        <v>65.00954678826454</v>
+        <v>59.36731927228435</v>
       </c>
       <c r="J43" t="n">
-        <v>78.28534634413701</v>
+        <v>59.36731927228435</v>
       </c>
       <c r="K43" t="n">
-        <v>111.8895340887804</v>
+        <v>92.97150701692776</v>
       </c>
       <c r="L43" t="n">
-        <v>212.4966134890399</v>
+        <v>231.5307021686424</v>
       </c>
       <c r="M43" t="n">
-        <v>330.4901196166417</v>
+        <v>349.5242082962442</v>
       </c>
       <c r="N43" t="n">
-        <v>448.912461366242</v>
+        <v>467.9465500458446</v>
       </c>
       <c r="O43" t="n">
-        <v>547.3761078619317</v>
+        <v>566.4101965415342</v>
       </c>
       <c r="P43" t="n">
-        <v>610.3445915900695</v>
+        <v>629.378680269672</v>
       </c>
       <c r="Q43" t="n">
-        <v>610.3445915900695</v>
+        <v>629.378680269672</v>
       </c>
       <c r="R43" t="n">
-        <v>628.266068145054</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S43" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T43" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U43" t="n">
-        <v>397.6085223761172</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V43" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X43" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433853</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575749</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
@@ -7652,13 +7652,13 @@
         <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>915.7684941687087</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M44" t="n">
-        <v>1309.007660421797</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1687.339019109512</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O44" t="n">
         <v>2156.811378073378</v>
@@ -7749,10 +7749,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
         <v>2168.477475838063</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749102</v>
+        <v>54.02211951749096</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7825,31 +7825,31 @@
         <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>611.4572037146879</v>
+        <v>629.378680269672</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007353</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666901</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916214</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433864</v>
+        <v>69.77035169433856</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7988,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>468.3526724740277</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>322.6512910759045</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8061,19 +8061,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>257.6085504034816</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>563.6425742808128</v>
+        <v>607.8524853807721</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8219,13 +8219,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>442.761249654034</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>568.2500870234423</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8304,7 +8304,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>538.2225697869393</v>
+        <v>542.7338695014682</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>184.992792701879</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>301.0362895393902</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.504146360031</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,13 +9003,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3588954737894</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>160.1351643640756</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.504146360031</v>
+        <v>160.1351643640751</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>323.0712546956447</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>301.0362895393902</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>323.0712546956447</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>301.0362895393902</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -11391,7 +11391,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.684255572312</v>
       </c>
       <c r="D11" t="n">
-        <v>258.6361052258876</v>
+        <v>3.709148255773098</v>
       </c>
       <c r="E11" t="n">
-        <v>280.3782427957931</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>60.62940690413086</v>
+        <v>57.65886129508324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548094</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>267.7502191745605</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.62026532447555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.82018375618392</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>62.48159294429679</v>
       </c>
       <c r="E14" t="n">
-        <v>280.3782427957931</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>272.5232629437311</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>301.4833267811928</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>60.62940690413083</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>70.8201837561823</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>228.2145696337915</v>
       </c>
       <c r="Y26" t="n">
-        <v>111.775307089473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.611506076885274</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>44.77777018133439</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693089.2426258157</v>
+        <v>695888.4772485297</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693089.2426258157</v>
+        <v>695888.4772485297</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741200.4725078169</v>
+        <v>738401.237885103</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741200.4725078171</v>
+        <v>738401.237885103</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575718.0453706364</v>
+        <v>575718.0453706363</v>
       </c>
       <c r="C2" t="n">
-        <v>575718.0453706364</v>
+        <v>575718.0453706363</v>
       </c>
       <c r="D2" t="n">
         <v>575718.0453706365</v>
       </c>
       <c r="E2" t="n">
-        <v>519816.9319693614</v>
+        <v>521916.3579363968</v>
       </c>
       <c r="F2" t="n">
-        <v>519816.9319693617</v>
+        <v>521916.3579363975</v>
       </c>
       <c r="G2" t="n">
         <v>575718.0453706364</v>
       </c>
       <c r="H2" t="n">
-        <v>575718.0453706369</v>
+        <v>575718.0453706364</v>
       </c>
       <c r="I2" t="n">
+        <v>575718.0453706364</v>
+      </c>
+      <c r="J2" t="n">
+        <v>553800.9284138269</v>
+      </c>
+      <c r="K2" t="n">
+        <v>553800.9284138269</v>
+      </c>
+      <c r="L2" t="n">
+        <v>575718.0453706379</v>
+      </c>
+      <c r="M2" t="n">
+        <v>575718.0453706373</v>
+      </c>
+      <c r="N2" t="n">
         <v>575718.0453706371</v>
       </c>
-      <c r="J2" t="n">
-        <v>555900.3543808621</v>
-      </c>
-      <c r="K2" t="n">
-        <v>555900.3543808623</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575718.0453706363</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>575718.0453706372</v>
       </c>
-      <c r="N2" t="n">
-        <v>575718.0453706372</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575718.0453706374</v>
-      </c>
       <c r="P2" t="n">
-        <v>575718.0453706373</v>
+        <v>575718.0453706371</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167560.8334292244</v>
+        <v>167942.6502382269</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7860.551262329209</v>
+        <v>7506.640144976951</v>
       </c>
       <c r="E3" t="n">
-        <v>116090.0638060055</v>
+        <v>116101.0852352526</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48821.99042975523</v>
+        <v>48202.3961856164</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.671513208653781e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>209049.4525117312</v>
+        <v>209669.0467558701</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71763.80405394349</v>
+        <v>72783.92923669721</v>
       </c>
       <c r="M3" t="n">
-        <v>19217.30608321031</v>
+        <v>17577.58665631775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41922.1419768117</v>
+        <v>42541.73622095057</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192595.7460809977</v>
+        <v>192288.685030232</v>
       </c>
       <c r="C4" t="n">
-        <v>192595.7460809976</v>
+        <v>192288.685030232</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>135155.9458552565</v>
+        <v>137470.9274777736</v>
       </c>
       <c r="F4" t="n">
-        <v>135155.9458552566</v>
+        <v>137470.9274777736</v>
       </c>
       <c r="G4" t="n">
-        <v>177455.3864857308</v>
+        <v>178165.3235048979</v>
       </c>
       <c r="H4" t="n">
-        <v>177455.3864857307</v>
+        <v>178165.3235048979</v>
       </c>
       <c r="I4" t="n">
-        <v>177455.3864857308</v>
+        <v>178165.3235048979</v>
       </c>
       <c r="J4" t="n">
-        <v>161255.7538733567</v>
+        <v>159621.318804109</v>
       </c>
       <c r="K4" t="n">
-        <v>161255.7538733567</v>
+        <v>159621.318804109</v>
       </c>
       <c r="L4" t="n">
-        <v>176090.4420391663</v>
+        <v>176048.4491196577</v>
       </c>
       <c r="M4" t="n">
         <v>175623.1205402357</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
+        <v>175623.1205402356</v>
+      </c>
+      <c r="P4" t="n">
         <v>175623.1205402357</v>
-      </c>
-      <c r="P4" t="n">
-        <v>175623.1205402356</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64027.47906678097</v>
+        <v>64096.75053423428</v>
       </c>
       <c r="C5" t="n">
-        <v>64027.47906678097</v>
+        <v>64096.75053423428</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46869.82236255098</v>
+        <v>46637.87924189358</v>
       </c>
       <c r="F5" t="n">
-        <v>46869.82236255098</v>
+        <v>46637.87924189358</v>
       </c>
       <c r="G5" t="n">
-        <v>52000.34225434985</v>
+        <v>51703.2882980543</v>
       </c>
       <c r="H5" t="n">
-        <v>52000.34225434985</v>
+        <v>51703.28829805431</v>
       </c>
       <c r="I5" t="n">
-        <v>52000.34225434985</v>
+        <v>51703.28829805431</v>
       </c>
       <c r="J5" t="n">
-        <v>55556.18660976218</v>
+        <v>55005.24122284445</v>
       </c>
       <c r="K5" t="n">
-        <v>55556.18660976218</v>
+        <v>55005.24122284445</v>
       </c>
       <c r="L5" t="n">
-        <v>56428.5002015966</v>
+        <v>56119.13824775647</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,7 +26506,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264636</v>
       </c>
       <c r="P5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151533.9867936334</v>
+        <v>151389.9595679431</v>
       </c>
       <c r="C6" t="n">
-        <v>319094.8202228578</v>
+        <v>319332.6098061699</v>
       </c>
       <c r="D6" t="n">
-        <v>316515.7001381028</v>
+        <v>316869.6112554551</v>
       </c>
       <c r="E6" t="n">
-        <v>221701.0999455485</v>
+        <v>221527.1270233629</v>
       </c>
       <c r="F6" t="n">
-        <v>337791.1637515541</v>
+        <v>337628.2122586162</v>
       </c>
       <c r="G6" t="n">
-        <v>297440.3262008006</v>
+        <v>297647.0373820678</v>
       </c>
       <c r="H6" t="n">
-        <v>346262.3166305562</v>
+        <v>345849.4335676841</v>
       </c>
       <c r="I6" t="n">
-        <v>346262.3166305565</v>
+        <v>345849.4335676841</v>
       </c>
       <c r="J6" t="n">
-        <v>130038.961386012</v>
+        <v>129432.2645744806</v>
       </c>
       <c r="K6" t="n">
-        <v>339088.4138977434</v>
+        <v>339101.3113303507</v>
       </c>
       <c r="L6" t="n">
-        <v>271435.2990759299</v>
+        <v>270766.5287665265</v>
       </c>
       <c r="M6" t="n">
-        <v>328074.8018545449</v>
+        <v>329714.5212814376</v>
       </c>
       <c r="N6" t="n">
-        <v>347292.1079377552</v>
+        <v>347292.1079377551</v>
       </c>
       <c r="O6" t="n">
-        <v>305369.9659609437</v>
+        <v>304750.3717168046</v>
       </c>
       <c r="P6" t="n">
-        <v>347292.1079377553</v>
+        <v>347292.1079377551</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="H2" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="I2" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.9980109667924</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="C4" t="n">
-        <v>499.9980109667924</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>618.1511937047435</v>
+        <v>610.2289252924996</v>
       </c>
       <c r="F4" t="n">
-        <v>618.1511937047435</v>
+        <v>610.2289252924996</v>
       </c>
       <c r="G4" t="n">
-        <v>618.1511937047435</v>
+        <v>610.2289252924995</v>
       </c>
       <c r="H4" t="n">
-        <v>618.1511937047435</v>
+        <v>610.2289252924996</v>
       </c>
       <c r="I4" t="n">
-        <v>618.1511937047435</v>
+        <v>610.2289252924996</v>
       </c>
       <c r="J4" t="n">
-        <v>756.9116122640228</v>
+        <v>747.8500105055075</v>
       </c>
       <c r="K4" t="n">
-        <v>756.9116122640228</v>
+        <v>747.8500105055075</v>
       </c>
       <c r="L4" t="n">
-        <v>731.6064219658249</v>
+        <v>723.684153553581</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.02748803719405</v>
+        <v>60.2529952320205</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.40267747101463</v>
+        <v>53.17717027618824</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>89.70475506742936</v>
+        <v>90.97991154587152</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02163260401289</v>
+        <v>21.97198332039719</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.40267747101463</v>
+        <v>53.17717027618821</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.9980109667924</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.30519029819789</v>
+        <v>24.16585695192657</v>
       </c>
       <c r="E4" t="n">
-        <v>92.84799243975317</v>
+        <v>84.92572402750932</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.132781242795334e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.02748803719405</v>
+        <v>60.2529952320205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.40267747101463</v>
+        <v>53.17717027618824</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.9980109667924</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.30519029819789</v>
+        <v>24.16585695192657</v>
       </c>
       <c r="M4" t="n">
-        <v>92.84799243975317</v>
+        <v>84.92572402750932</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -27397,7 +27397,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>1.439822982851723</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>171.8123382184381</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>83.69076519424036</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>140.1570045085308</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>112.4258254724303</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>160.8466382938682</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27603,7 +27603,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.81714977332706</v>
       </c>
       <c r="S5" t="n">
-        <v>64.64996163039442</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,16 +27673,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>106.7229015274837</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>101.1318897525934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27822,10 +27822,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>154.783920356622</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>135.4959830489997</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>30.07199273672325</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,16 +27910,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>245.1165563804915</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>12.44103031728606</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>22.82253299547418</v>
       </c>
       <c r="C10" t="n">
-        <v>50.6891064424719</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>36.26167602355893</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M11" t="n">
-        <v>110.4596198991611</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>85.71296083956594</v>
       </c>
       <c r="P11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.4596198991611</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>94.53805206091457</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>66.09636509914657</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>36.26167602355893</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M14" t="n">
-        <v>110.4596198991611</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.4596198991611</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>110.4596198991611</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>109.4112227086692</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.53805206091451</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>11.85262580694192</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.4596198991611</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="D17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="E17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="F17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="G17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="H17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="I17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>24.26823871526889</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28594,13 +28594,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>162.5883929848572</v>
       </c>
       <c r="O17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>125.2827913151509</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>94.53805206091455</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.4871079363552</v>
+        <v>156.1147383092371</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T19" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U19" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V19" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W19" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X19" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="20">
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="D20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="E20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="F20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="G20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="H20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="I20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,40 +28834,40 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>78.63713588373355</v>
       </c>
       <c r="O20" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>24.26823871526901</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="S20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>57.58432885831088</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>35.35162584491033</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28974,7 +28974,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>140.2104963375267</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T22" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U22" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V22" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W22" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X22" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="23">
@@ -29035,49 +29035,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="D23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="E23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="F23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="G23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="H23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="I23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>162.5883929848576</v>
       </c>
       <c r="O23" t="n">
-        <v>24.26823871526898</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>26.83958960407466</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>66.09636509914657</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>133.3874259934884</v>
       </c>
       <c r="G25" t="n">
         <v>167.2305511458285</v>
@@ -29244,25 +29244,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T25" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U25" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V25" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W25" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X25" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.4871079363552</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="26">
@@ -29311,7 +29311,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315932</v>
       </c>
       <c r="P26" t="n">
         <v>113.4301655082087</v>
@@ -29320,7 +29320,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
-        <v>99.36630797364427</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S26" t="n">
         <v>113.4301655082087</v>
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29548,7 +29548,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
-        <v>99.3663079736441</v>
+        <v>63.48602626315932</v>
       </c>
       <c r="P29" t="n">
         <v>113.4301655082087</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="C32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="D32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="E32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="F32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="G32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="H32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="I32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="J32" t="n">
-        <v>142.107432538444</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>53.96470754709904</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="L32" t="n">
-        <v>142.107432538444</v>
+        <v>10.2978298494487</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="N32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="P32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.107432538444</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="S32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="T32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="U32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="V32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="W32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="X32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
     </row>
     <row r="33">
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>14.56549128550378</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29904,46 +29904,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="C34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="D34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="E34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="F34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="G34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="H34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="I34" t="n">
-        <v>142.107432538444</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
-        <v>116.9219836752941</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>21.33018514711034</v>
       </c>
       <c r="N34" t="n">
-        <v>142.107432538444</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="S34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="T34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="U34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="V34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="W34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="X34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.107432538444</v>
+        <v>144.1570818220598</v>
       </c>
     </row>
     <row r="35">
@@ -30016,22 +30016,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>40.58157162934918</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30168,10 +30168,10 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30244,7 +30244,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>40.5815716293495</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30405,10 +30405,10 @@
         <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="L40" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30484,28 +30484,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>40.58157162934941</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>116.9787331327008</v>
-      </c>
-      <c r="R41" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30627,25 +30627,25 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>72.86656474125432</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>38.33547045601532</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30724,16 +30724,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>40.58157162934953</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O44" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934941</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.56549128550398</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.7350831921101</v>
+        <v>84.83758476280113</v>
       </c>
       <c r="R46" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34708,13 +34708,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>281.9545583017975</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>134.774482024748</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34781,19 +34781,19 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>145.0331168323338</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>456.9274332131046</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34939,13 +34939,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>251.2010374909194</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>381.8519728512123</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>431.507428719231</v>
+        <v>436.0187284337599</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13858667773572</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>108.9874783193222</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606796</v>
       </c>
       <c r="M11" t="n">
-        <v>507.6708989426843</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>393.7983997010144</v>
       </c>
       <c r="P11" t="n">
-        <v>340.921131470932</v>
+        <v>343.8916770799796</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.8457347340469</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.69826186910352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>192.1820835152469</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.76895491513854</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.00295369919208</v>
+        <v>53.9734993082397</v>
       </c>
       <c r="K13" t="n">
-        <v>144.4032438836494</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L13" t="n">
-        <v>212.0829324246757</v>
+        <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>229.6449796240113</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N13" t="n">
-        <v>230.0781469189594</v>
+        <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>209.917848682686</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P13" t="n">
-        <v>174.0641489174821</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.30765196631323</v>
+        <v>75.27819757536085</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>108.9874783193222</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M14" t="n">
-        <v>507.6708989426843</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>492.6125074625103</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>418.5450587606095</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>339.8727342804402</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>348.7834619026416</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>46.39997291918311</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.00295369919211</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K16" t="n">
-        <v>144.4032438836494</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L16" t="n">
-        <v>212.0829324246758</v>
+        <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>229.6449796240113</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N16" t="n">
-        <v>230.0781469189595</v>
+        <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>209.917848682686</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P16" t="n">
-        <v>174.0641489174821</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.30765196631326</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.398081133063215</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>96.99404101103218</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,13 +35890,13 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>568.6983869798784</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>544.7412805482064</v>
       </c>
       <c r="O17" t="n">
-        <v>479.5725467978036</v>
+        <v>481.7685996016776</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.76895491513854</v>
+        <v>46.39997291918264</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.398081133063215</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>416.2491931086967</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36130,19 +36130,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>460.7900234470828</v>
       </c>
       <c r="O20" t="n">
-        <v>479.5725467978036</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>254.7297502870399</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.873222771241</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>83.95125710112401</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>211.075085528978</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36215,7 +36215,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>192.1820835152469</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3652826117113</v>
@@ -36352,28 +36352,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.398081133063215</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>244.2129102321184</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>525.0825274927001</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>544.7412805482069</v>
       </c>
       <c r="O23" t="n">
-        <v>332.3536775767174</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>401.9486195081261</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>211.075085528978</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>192.1820835152469</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36607,7 +36607,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696571</v>
+        <v>371.5714651246078</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>9.634404334539079</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36759,19 +36759,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>407.4517468350925</v>
+        <v>371.5714651246078</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.8332348342073</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>296.5307399155665</v>
+        <v>386.7231141905272</v>
       </c>
       <c r="L32" t="n">
-        <v>493.506799290915</v>
+        <v>361.6971966019196</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>541.3683608655829</v>
       </c>
       <c r="N32" t="n">
-        <v>524.2603201017932</v>
+        <v>526.309969385409</v>
       </c>
       <c r="O32" t="n">
-        <v>308.0854388614484</v>
+        <v>452.2425206835082</v>
       </c>
       <c r="P32" t="n">
-        <v>372.5689441102149</v>
+        <v>374.6185933938307</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.4935473733299</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>52.37552889933886</v>
+        <v>54.42517818295457</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>57.46531747532514</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>245.7803943475744</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>140.5155448719606</v>
       </c>
       <c r="N34" t="n">
-        <v>261.7259595582424</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>241.565661321969</v>
+        <v>243.6153106055847</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
@@ -37312,22 +37312,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0430832011201</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>80.62924081444127</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3073739251128</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37552,7 +37552,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37561,7 +37561,7 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R38" t="n">
         <v>76.39716150335175</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444126</v>
       </c>
       <c r="L40" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37780,28 +37780,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>563.34034418598</v>
       </c>
       <c r="N41" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3648479675866</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
         <v>159.3652826117113</v>
@@ -37923,25 +37923,25 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938003</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>13.40989854128532</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>101.6233125255146</v>
+        <v>139.95878298153</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>391.9809383818205</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039053</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
@@ -38038,7 +38038,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.3971615033517</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q45" t="n">
         <v>159.3652826117113</v>
@@ -38193,10 +38193,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.58311525926224</v>
+        <v>46.68561682995327</v>
       </c>
       <c r="R46" t="n">
-        <v>18.10250157069132</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
